--- a/Keuzes.xlsx
+++ b/Keuzes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Vraag</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Onderhoud/openen via</t>
-  </si>
-  <si>
-    <t>Achterkant</t>
   </si>
   <si>
     <t>700 mm</t>
@@ -126,18 +123,6 @@
   </si>
   <si>
     <t>microSD-kaart nodig?</t>
-  </si>
-  <si>
-    <t>Nee</t>
-  </si>
-  <si>
-    <t>32 b / 44.1 kHz MP3 met hoge kwaliteit van 160 kb/s is goed genoeg
-160 kb/s = 20 KB/s = 19.5 KiB/s
-Samples van piano en dierengeluiden duren ongeveer 1 seconde
-of gemiddeld 24.8 KiB. In 8 MiB (de helft van het geheugen vanwege OTA)
-kunnen dan:
-~330 samples / ~420 seconden / 7 minuten aan muziek worden opgeslagen,
-dat is voldoende</t>
   </si>
   <si>
     <t>Davy, Glenn, Sven, Wouter</t>
@@ -206,9 +191,6 @@
     <t>Ja, in bodemplaat en van boven in achterplaat</t>
   </si>
   <si>
-    <t>Hoe onderhoud</t>
-  </si>
-  <si>
     <t>Achterplaat is met schroeven los te maken</t>
   </si>
   <si>
@@ -218,13 +200,28 @@
     <t>Hoeveel gewicht moeten de wielen aankunnen?</t>
   </si>
   <si>
-    <t>Veel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Let </t>
   </si>
   <si>
     <t>Voor onderhoud</t>
+  </si>
+  <si>
+    <t>Nog uitzoeken</t>
+  </si>
+  <si>
+    <t>Veel, nog uitzoeken</t>
+  </si>
+  <si>
+    <t>32 b / 44.1 kHz MP3 met hoge kwaliteit van 160 kb/s is goed genoeg
+160 kb/s = 20 KB/s = 19.5 KiB/s
+Samples van piano en dierengeluiden duren ongeveer 1 seconde
+of gemiddeld 24.8 KiB. In 4 MiB (dat lijkt een limiet te zijn, anders 8 MiB: de helft van het totale geheugen van 16 MiB vanwege OTA)
+kunnen dan:
+~165 samples / ~210 seconden / 3.5 minuten aan muziek worden opgeslagen,
+dat is voldoende</t>
+  </si>
+  <si>
+    <t>Nee</t>
   </si>
 </sst>
 </file>
@@ -262,12 +259,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,7 +289,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -300,6 +303,8 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="8" bestFit="1" customWidth="1"/>
@@ -629,10 +634,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -641,41 +646,41 @@
         <v>44538</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8">
         <v>44538</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8">
         <v>44538</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
@@ -683,16 +688,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8">
         <v>44538</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -709,7 +714,7 @@
         <v>44538</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -723,7 +728,7 @@
         <v>44538</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -734,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8">
         <v>44538</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -748,226 +753,221 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8">
         <v>44538</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8">
         <v>44538</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="8">
         <v>44538</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="8">
         <v>44538</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8">
         <v>44538</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="8">
         <v>44538</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8">
         <v>44538</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="8">
+        <v>44538</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8">
-        <v>44538</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" s="8">
         <v>44538</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="8">
+        <v>44538</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="8">
-        <v>44538</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
+      <c r="B19" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8">
         <v>44538</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8">
         <v>44538</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="8">
         <v>44538</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
+      <c r="C23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Keuzes.xlsx
+++ b/Keuzes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>Vraag</t>
   </si>
@@ -134,19 +134,7 @@
     <t>Aantal toetsen</t>
   </si>
   <si>
-    <t>24 = 2 octaven</t>
-  </si>
-  <si>
-    <t>Daar kan je veel liedjes op spelen</t>
-  </si>
-  <si>
     <t>Meest linkse toets is een</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Liedjes beginnen op C, paar tonen naar links, veel tonen naar rechts</t>
   </si>
   <si>
     <t>Met diepte/3D</t>
@@ -198,12 +186,6 @@
   </si>
   <si>
     <t>Hoeveel gewicht moeten de wielen aankunnen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let </t>
-  </si>
-  <si>
-    <t>Voor onderhoud</t>
   </si>
   <si>
     <t>Nog uitzoeken</t>
@@ -223,12 +205,87 @@
   <si>
     <t>Nee</t>
   </si>
+  <si>
+    <t>Let op marge i.v.m. hobbels tijdens rijden</t>
+  </si>
+  <si>
+    <t>Voor onderhoud
+Om de piano (met een verlengsnoer) ergens anders te kunnen gebruiken</t>
+  </si>
+  <si>
+    <t>PVC-platen: wit of bedrukt?</t>
+  </si>
+  <si>
+    <t>Voor spellen 2 en 4 gebruiken we dezelfde 10 liedjes.</t>
+  </si>
+  <si>
+    <t>Kunnen we later nog uitbreiden</t>
+  </si>
+  <si>
+    <t>Lidia, Sven, Wouter</t>
+  </si>
+  <si>
+    <t>25 = 2 octaven + 1 (C)</t>
+  </si>
+  <si>
+    <t>Daar kan je heel veel liedjes op spelen</t>
+  </si>
+  <si>
+    <t>2021-12-08
+herzien: 2021-12-27</t>
+  </si>
+  <si>
+    <t>Davy, Glenn, Sven, Wouter
+Lidia, Wouter</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liedjes beginnen op C, paar tonen naar links, veel tonen naar rechts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ik heb trouwens de eerste 40  kinderliedje die je krijgt als je erop googled geprobeerd op de piano. 
+Op 1 liedje na kon ik ze allemaal spelen op GAB CDEFG ABC. Dus hoger dan die 2e C is bijna nooit nodig, lager dan de onderste G ook niet.
+Je zou dus ook een piano kunnen maken die begint met een C, en eindigt twee octaven erboven op een C. Dan kan je haast alles spelen, en zou je met zijn tweeën kunnen spelen.
+CDEFG in het midden kan natuurlijk ook. Dan zit je midden voor de piano als je speelt."
+"Toonladder begint met een C, dus logisch om daar mee te beginnen"</t>
+    </r>
+  </si>
+  <si>
+    <t>Gekleurd</t>
+  </si>
+  <si>
+    <t>Mooier</t>
+  </si>
+  <si>
+    <t>Davy, Lidia, Sven, Wouter</t>
+  </si>
+  <si>
+    <t>Welke lijm om PCV-platen vast te maken aan frame?</t>
+  </si>
+  <si>
+    <t>Bison Poly Max lijkt een hele goede keuze</t>
+  </si>
+  <si>
+    <t>Kaas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +314,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,7 +354,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -305,6 +370,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,15 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="8" bestFit="1" customWidth="1"/>
@@ -637,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -649,38 +723,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="45">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="165">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8">
-        <v>44538</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="8">
-        <v>44538</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
+      <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
@@ -691,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
         <v>44538</v>
@@ -731,14 +805,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="8">
@@ -753,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8">
         <v>44538</v>
@@ -767,7 +841,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8">
         <v>44538</v>
@@ -781,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8">
         <v>44538</v>
@@ -812,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8">
         <v>44538</v>
@@ -840,7 +914,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>29</v>
@@ -877,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -911,10 +985,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8">
         <v>44538</v>
@@ -925,10 +999,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8">
         <v>44538</v>
@@ -939,10 +1013,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8">
         <v>44538</v>
@@ -953,21 +1027,69 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44557</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44557</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="12">
+        <v>44557</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
